--- a/biology/Médecine/Classe_ATC_A14/Classe_ATC_A14.xlsx
+++ b/biology/Médecine/Classe_ATC_A14/Classe_ATC_A14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A14, dénommée « Agents anabolisants (usage systémique) », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA14[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A14, dénommée « Agents anabolisants (usage systémique) », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA14. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A14AA Dérivés de l'androstane
-A14AA01 Androstanolone
+          <t>A14AA Dérivés de l'androstane</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A14AA01 Androstanolone
 A14AA02 Stanozolol
 A14AA03 Métandiénone
 A14AA04 Méténolone
@@ -522,11 +539,7 @@
 A14AA06 Quinbolone
 A14AA07 Prastérone
 A14AA08 Oxandrolone
-A14AA09 Noréthandrolone
-A14AB Dérivés de l'estrane
-A14AB01 Nandrolone
-A14AB02 Éthylestrénol
-A14AB03 Cipionate d'oxabolone</t>
+A14AA09 Noréthandrolone</t>
         </is>
       </c>
     </row>
@@ -551,10 +564,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>A14A Stéroïdes anabolisants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A14AB Dérivés de l'estrane</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A14AB01 Nandrolone
+A14AB02 Éthylestrénol
+A14AB03 Cipionate d'oxabolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>A14B Autres agents anabolisants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Groupe vide</t>
         </is>
